--- a/RQ/Esterni/Specifica Tecnica/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Specifica Tecnica/Tracciamento Classi-requisiti.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="152">
   <si>
     <t>Requisito</t>
   </si>
@@ -160,9 +160,6 @@
     <t>RFD 9.2.1</t>
   </si>
   <si>
-    <t>EsitoDomanda</t>
-  </si>
-  <si>
     <t>MostraDatiD</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>MostraDatiAA</t>
   </si>
   <si>
-    <t>***</t>
-  </si>
-  <si>
     <t>RFOB 22.1</t>
   </si>
   <si>
@@ -244,9 +238,6 @@
     <t>RFOB 9.1</t>
   </si>
   <si>
-    <t>ControlEsitoDom</t>
-  </si>
-  <si>
     <t>ControlMostraDatiD</t>
   </si>
   <si>
@@ -406,9 +397,6 @@
     <t>GestioneTrofeiAA</t>
   </si>
   <si>
-    <t>GestioneRecuperoD</t>
-  </si>
-  <si>
     <t>Da cambiare il nome della classe</t>
   </si>
   <si>
@@ -460,9 +448,6 @@
     <t>Trofei</t>
   </si>
   <si>
-    <t>log?</t>
-  </si>
-  <si>
     <t>Domanda</t>
   </si>
   <si>
@@ -478,13 +463,16 @@
     <t>Altri Requisiti</t>
   </si>
   <si>
-    <t>XXXXXXX</t>
-  </si>
-  <si>
-    <t>Log</t>
-  </si>
-  <si>
     <t>Socket</t>
+  </si>
+  <si>
+    <t>GestioneRecupero</t>
+  </si>
+  <si>
+    <t>AccessLog</t>
+  </si>
+  <si>
+    <t>RVOB 1</t>
   </si>
 </sst>
 </file>
@@ -833,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -857,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1">
@@ -871,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
@@ -881,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
@@ -891,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1">
@@ -901,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1">
@@ -1003,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1">
@@ -1017,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1">
@@ -1027,7 +1015,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1">
@@ -1107,12 +1095,28 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1">
+      <c r="C28" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" customHeight="1">
+      <c r="C29" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" customHeight="1">
+      <c r="C30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1122,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C119" sqref="C116:C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1148,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
@@ -1162,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
@@ -1170,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
@@ -1178,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
@@ -1186,7 +1190,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
@@ -1194,7 +1198,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
@@ -1208,7 +1212,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
@@ -1216,7 +1220,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
@@ -1239,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
@@ -1262,32 +1266,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1298,12 +1302,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1314,37 +1318,37 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="C26" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="C27" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="C29" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+    <row r="30" spans="1:3" ht="15" customHeight="1">
       <c r="C30" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:3" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1352,58 +1356,49 @@
         <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1">
+      <c r="C32" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1">
+      <c r="C34" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1">
-      <c r="C33" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1">
       <c r="C35" s="3" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1">
       <c r="C37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1">
@@ -1413,559 +1408,540 @@
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1">
       <c r="C39" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1">
       <c r="C40" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1">
-      <c r="C41" s="3" t="s">
+    <row r="42" spans="1:3" ht="15" customHeight="1">
+      <c r="C42" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:3" ht="15" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1">
       <c r="C43" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="C44" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1">
+      <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1">
+      <c r="C46" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1">
+      <c r="C48" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1">
-      <c r="C45" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1">
-      <c r="C47" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1">
       <c r="C49" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C50" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="C51" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1">
+      <c r="B52" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C52" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1">
+      <c r="C53" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1">
-      <c r="A53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="C54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1">
+      <c r="C55" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1">
-      <c r="C54" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1">
-      <c r="A55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1">
       <c r="C56" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1">
-      <c r="C57" s="3" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="59" spans="1:3" ht="15" customHeight="1">
-      <c r="A59" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1">
       <c r="C60" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" customHeight="1">
-      <c r="C61" s="1" t="s">
-        <v>27</v>
+      <c r="A61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1">
-      <c r="A62" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1">
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1">
       <c r="C64" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1">
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1">
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1">
-      <c r="C67" s="2" t="s">
-        <v>16</v>
+      <c r="C67" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1">
       <c r="C68" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1">
       <c r="C69" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1">
       <c r="C70" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" customHeight="1">
       <c r="C71" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1">
       <c r="C72" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1">
       <c r="C73" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1">
       <c r="C74" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1">
       <c r="C75" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" customHeight="1">
-      <c r="C76" s="3" t="s">
-        <v>36</v>
+      <c r="A76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" customHeight="1">
-      <c r="A78" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C78" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" customHeight="1">
       <c r="C79" s="3" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" customHeight="1">
       <c r="C80" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" customHeight="1">
+      <c r="C81" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" customHeight="1">
+      <c r="C82" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" customHeight="1">
+      <c r="C83" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" customHeight="1">
+      <c r="C84" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" customHeight="1">
+      <c r="A85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" customHeight="1">
+      <c r="C86" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
-      <c r="C81" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
-      <c r="C82" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
-      <c r="C83" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
-      <c r="C84" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
-      <c r="C85" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
-      <c r="A86" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="C87" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" customHeight="1">
+      <c r="C88" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
-      <c r="A87" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="C89" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" customHeight="1">
+      <c r="C90" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" customHeight="1">
+      <c r="C91" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" customHeight="1">
+      <c r="C92" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" customHeight="1">
+      <c r="A93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
-      <c r="C88" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
-      <c r="A89" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="C93" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" customHeight="1">
+      <c r="C94" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" customHeight="1">
+      <c r="C95" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" customHeight="1">
+      <c r="C96" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" customHeight="1">
+      <c r="C97" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" customHeight="1">
+      <c r="A98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
-      <c r="C90" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
-      <c r="A91" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
-      <c r="C92" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
-      <c r="C93" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
-      <c r="C94" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
-      <c r="A95" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
-      <c r="C96" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" customHeight="1">
-      <c r="C97" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1">
       <c r="C98" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" customHeight="1">
       <c r="C99" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15" customHeight="1">
       <c r="C101" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1">
-      <c r="A102" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C102" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" customHeight="1">
       <c r="C103" s="3" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" customHeight="1">
+      <c r="A104" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C104" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" customHeight="1">
       <c r="C105" s="3" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" customHeight="1">
       <c r="C107" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" customHeight="1">
       <c r="C109" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" customHeight="1">
+      <c r="A111" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" customHeight="1">
+      <c r="C112" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" customHeight="1">
+      <c r="C113" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15" customHeight="1">
-      <c r="C111" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1">
-      <c r="C112" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15" customHeight="1">
-      <c r="A113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="114" spans="1:3" ht="15" customHeight="1">
+      <c r="A114" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C114" s="3" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15" customHeight="1">
       <c r="C115" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15" customHeight="1">
       <c r="C117" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" customHeight="1">
-      <c r="A118" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" customHeight="1">
       <c r="C119" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15" customHeight="1">
-      <c r="C120" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15" customHeight="1">
-      <c r="C121" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2002,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
@@ -2010,13 +1986,13 @@
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
@@ -2024,7 +2000,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
@@ -2032,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
@@ -2040,7 +2016,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
@@ -2048,7 +2024,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
@@ -2056,13 +2032,13 @@
         <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
@@ -2095,7 +2071,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
@@ -2103,7 +2079,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
@@ -2116,7 +2092,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -2124,7 +2100,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
@@ -2132,7 +2108,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>15</v>
@@ -2140,7 +2116,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
@@ -2148,7 +2124,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>40</v>
@@ -2189,7 +2165,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>6</v>
@@ -2207,33 +2183,33 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="C32" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="C33" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="C34" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>9</v>
@@ -2254,23 +2230,23 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
@@ -2280,22 +2256,22 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="C44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="C45" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
@@ -2305,15 +2281,15 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="C48" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>40</v>
@@ -2351,46 +2327,46 @@
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="C56" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="C57" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="C58" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="C59" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="C61" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>10</v>
@@ -2409,10 +2385,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -2424,7 +2400,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2435,12 +2411,12 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
@@ -2448,20 +2424,29 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="D3" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -2469,80 +2454,87 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="D5" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="D6" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -2565,10 +2557,10 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
@@ -2626,10 +2618,10 @@
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>33</v>
@@ -2637,7 +2629,7 @@
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1">
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1">
@@ -2647,20 +2639,20 @@
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1">
       <c r="C36" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1">
       <c r="C37" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>13</v>
@@ -2668,15 +2660,15 @@
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1">
       <c r="C39" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>30</v>
@@ -2684,15 +2676,15 @@
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>14</v>
@@ -2700,17 +2692,17 @@
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1">
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1">
       <c r="C44" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1">
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1">
@@ -2720,33 +2712,33 @@
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1">
       <c r="C47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1">
       <c r="C48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
       <c r="C49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="C51" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
@@ -2756,15 +2748,15 @@
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
       <c r="C53" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>13</v>
@@ -2772,15 +2764,15 @@
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
       <c r="C55" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>30</v>
@@ -2788,26 +2780,26 @@
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="C57" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
       <c r="C59" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
@@ -2817,21 +2809,21 @@
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
@@ -2849,23 +2841,23 @@
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1">
       <c r="C68" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1">
       <c r="C69" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1">
@@ -2875,22 +2867,22 @@
     </row>
     <row r="71" spans="1:3" ht="15" customHeight="1">
       <c r="C71" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1">
       <c r="C72" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1">
       <c r="C73" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1">
       <c r="C74" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1">
@@ -2900,15 +2892,15 @@
     </row>
     <row r="76" spans="1:3" ht="15" customHeight="1">
       <c r="C76" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>40</v>
@@ -2946,226 +2938,224 @@
     </row>
     <row r="84" spans="1:3" ht="15" customHeight="1">
       <c r="C84" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1">
       <c r="C85" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" customHeight="1">
       <c r="C86" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1">
       <c r="C87" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1">
       <c r="A88" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C88" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" customHeight="1">
       <c r="C89" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" customHeight="1">
       <c r="C91" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" customHeight="1">
       <c r="C93" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" customHeight="1">
       <c r="C94" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" customHeight="1">
       <c r="C95" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" customHeight="1">
       <c r="C96" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" customHeight="1">
+      <c r="A97" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B97" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B98" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" customHeight="1">
+      <c r="C98" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" customHeight="1">
+      <c r="A100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
-      <c r="C99" s="1" t="s">
+    <row r="101" spans="1:3" ht="15" customHeight="1">
+      <c r="C101" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
-      <c r="C100" s="1" t="s">
+    <row r="102" spans="1:3" ht="15" customHeight="1">
+      <c r="C102" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
-      <c r="A101" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
-      <c r="C102" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
+    <row r="103" spans="1:3" ht="15" customHeight="1">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="C103" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" customHeight="1">
       <c r="C104" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" customHeight="1">
+      <c r="C105" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" customHeight="1">
+      <c r="C106" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
-      <c r="C105" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
-      <c r="C106" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+    <row r="107" spans="1:3" ht="15" customHeight="1">
       <c r="C107" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" customHeight="1">
       <c r="C108" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" customHeight="1">
       <c r="C109" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" customHeight="1">
+      <c r="C110" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" customHeight="1">
+      <c r="C111" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
-      <c r="C110" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
-      <c r="A111" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C111" s="3" t="s">
+    <row r="112" spans="1:3" ht="15" customHeight="1">
+      <c r="C112" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1">
+      <c r="A113" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
-      <c r="C112" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
-      <c r="C113" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
       <c r="C114" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
       <c r="C115" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1">
       <c r="C116" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="C117" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
-      <c r="C118" s="1" t="s">
-        <v>139</v>
+      <c r="C118" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="C119" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
-      <c r="C120" s="3" t="s">
-        <v>62</v>
+      <c r="C120" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
@@ -3174,58 +3164,59 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
-      <c r="A122" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D122" s="4"/>
+      <c r="C122" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
-      <c r="C123" s="1" t="s">
-        <v>67</v>
+      <c r="C123" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1">
       <c r="C125" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
-      <c r="C127" s="3"/>
+      <c r="C127" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="3:3" ht="15" customHeight="1">
       <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" ht="15" customHeight="1">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" ht="15" customHeight="1">
+      <c r="C131" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RQ/Esterni/Specifica Tecnica/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Specifica Tecnica/Tracciamento Classi-requisiti.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="150">
   <si>
     <t>Requisito</t>
   </si>
@@ -397,9 +397,6 @@
     <t>GestioneTrofeiAA</t>
   </si>
   <si>
-    <t>Da cambiare il nome della classe</t>
-  </si>
-  <si>
     <t>……..</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
   </si>
   <si>
     <t>Recupero</t>
-  </si>
-  <si>
-    <t>For all in pagine…</t>
   </si>
   <si>
     <t>Altri Requisiti</t>
@@ -821,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -845,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1">
@@ -970,7 +964,6 @@
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1">
       <c r="A15" s="2"/>
@@ -978,41 +971,35 @@
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>93</v>
@@ -1022,39 +1009,42 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -1062,7 +1052,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -1070,7 +1060,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -1078,45 +1068,53 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1">
-      <c r="C28" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1">
       <c r="C29" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" customHeight="1">
+      <c r="C30" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1">
-      <c r="C30" s="3"/>
+    <row r="31" spans="1:4" ht="16.5" customHeight="1">
+      <c r="C31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1128,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C119" sqref="C116:C119"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D60" sqref="D58:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1152,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
@@ -1242,9 +1240,6 @@
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="C13" s="3" t="s">
@@ -1480,12 +1475,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1">
       <c r="C49" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
@@ -1496,12 +1491,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="C51" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>25</v>
       </c>
@@ -1512,12 +1507,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1">
       <c r="C53" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,17 +1523,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1">
       <c r="C55" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="C56" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1">
+    <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -1548,18 +1543,27 @@
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1">
+      <c r="D58" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1">
       <c r="C59" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1">
+      <c r="D59" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1">
       <c r="C60" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1">
+      <c r="D60" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
@@ -1570,17 +1574,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1">
+    <row r="62" spans="1:4" ht="15" customHeight="1">
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1">
+    <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="C63" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1">
+    <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
@@ -1954,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1978,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
@@ -2098,12 +2102,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -2114,12 +2118,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -2130,37 +2134,37 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="C21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="C23" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="C25" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="C26" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2171,17 +2175,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>106</v>
       </c>
@@ -2191,10 +2195,16 @@
       <c r="C31" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="C32" s="3" t="s">
         <v>85</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
@@ -2233,7 +2243,7 @@
         <v>108</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>54</v>
@@ -2241,12 +2251,12 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
@@ -2289,7 +2299,7 @@
         <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>40</v>
@@ -2327,7 +2337,7 @@
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="C56" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
@@ -2350,7 +2360,7 @@
         <v>108</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>66</v>
@@ -2366,7 +2376,7 @@
         <v>108</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>10</v>
@@ -2385,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -2411,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -2433,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
@@ -2455,7 +2465,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
@@ -2463,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
@@ -2720,12 +2730,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+    <row r="49" spans="1:3" ht="15" customHeight="1">
       <c r="C49" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+    <row r="50" spans="1:3" ht="15" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>112</v>
       </c>
@@ -2736,22 +2746,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+    <row r="51" spans="1:3" ht="15" customHeight="1">
       <c r="C51" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:3" ht="15" customHeight="1">
       <c r="C52" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+    <row r="53" spans="1:3" ht="15" customHeight="1">
       <c r="C53" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:3" ht="15" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>112</v>
       </c>
@@ -2762,12 +2772,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:3" ht="15" customHeight="1">
       <c r="C55" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:3" ht="15" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>112</v>
       </c>
@@ -2778,36 +2788,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:3" ht="15" customHeight="1">
       <c r="C57" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:3" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1">
       <c r="C59" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:3" ht="15" customHeight="1">
       <c r="C60" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:3" ht="15" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>112</v>
       </c>
@@ -2815,39 +2822,44 @@
         <v>113</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1">
+      <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
-      <c r="A64" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="C63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1">
       <c r="C64" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1">
       <c r="C65" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C66" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1">
-      <c r="A67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1">
@@ -2857,214 +2869,214 @@
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1">
       <c r="C69" s="1" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1">
       <c r="C70" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" customHeight="1">
       <c r="C71" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1">
       <c r="C72" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1">
       <c r="C73" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1">
       <c r="C74" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1">
       <c r="C75" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" customHeight="1">
-      <c r="C76" s="1" t="s">
-        <v>50</v>
+      <c r="A76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1">
-      <c r="A77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C77" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" customHeight="1">
       <c r="C78" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" customHeight="1">
       <c r="C79" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" customHeight="1">
       <c r="C80" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" customHeight="1">
       <c r="C81" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" customHeight="1">
       <c r="C82" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" customHeight="1">
-      <c r="C83" s="3" t="s">
-        <v>46</v>
+      <c r="C83" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" customHeight="1">
-      <c r="C84" s="1" t="s">
-        <v>135</v>
+      <c r="C84" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1">
       <c r="C85" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" customHeight="1">
       <c r="C86" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1">
-      <c r="C87" s="3" t="s">
-        <v>61</v>
+      <c r="A87" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1">
-      <c r="A88" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1">
-      <c r="C89" s="1" t="s">
+    <row r="90" spans="1:3" ht="15" customHeight="1">
+      <c r="C90" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1">
-      <c r="A90" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="91" spans="1:3" ht="15" customHeight="1">
-      <c r="C91" s="1" t="s">
-        <v>65</v>
+      <c r="A91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" customHeight="1">
-      <c r="A92" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C92" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" customHeight="1">
       <c r="C93" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" customHeight="1">
       <c r="C94" s="3" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" customHeight="1">
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" customHeight="1">
+      <c r="A96" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="C96" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" customHeight="1">
-      <c r="A97" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C97" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1">
-      <c r="C98" s="1" t="s">
         <v>117</v>
       </c>
     </row>
+    <row r="99" spans="1:3" ht="15" customHeight="1">
+      <c r="A99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="100" spans="1:3" ht="15" customHeight="1">
-      <c r="A100" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C100" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15" customHeight="1">
       <c r="C101" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1">
+      <c r="A102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="C102" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" customHeight="1">
-      <c r="A103" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" customHeight="1">
@@ -3074,137 +3086,135 @@
     </row>
     <row r="105" spans="1:3" ht="15" customHeight="1">
       <c r="C105" s="1" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1">
       <c r="C106" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" customHeight="1">
       <c r="C107" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" customHeight="1">
       <c r="C108" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" customHeight="1">
       <c r="C109" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" customHeight="1">
       <c r="C110" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" customHeight="1">
       <c r="C111" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15" customHeight="1">
-      <c r="C112" s="1" t="s">
-        <v>50</v>
+      <c r="A112" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1">
-      <c r="A113" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C113" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
       <c r="C114" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
       <c r="C115" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1">
       <c r="C116" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="C117" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
       <c r="C118" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
-      <c r="C119" s="3" t="s">
-        <v>46</v>
+      <c r="C119" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
-      <c r="C120" s="1" t="s">
-        <v>135</v>
+      <c r="C120" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
       <c r="C121" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
       <c r="C122" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
-      <c r="C123" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="A123" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D123" s="4"/>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
-      <c r="A124" s="1" t="s">
+      <c r="C124" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" customHeight="1">
+      <c r="A125" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
-      <c r="C125" s="1" t="s">
+    </row>
+    <row r="126" spans="1:4" ht="15" customHeight="1">
+      <c r="C126" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
-      <c r="A126" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
-      <c r="C127" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
       <c r="C128" s="3"/>
@@ -3214,9 +3224,6 @@
     </row>
     <row r="130" spans="3:3" ht="15" customHeight="1">
       <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="3:3" ht="15" customHeight="1">
-      <c r="C131" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RQ/Esterni/Specifica Tecnica/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Specifica Tecnica/Tracciamento Classi-requisiti.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="150">
   <si>
     <t>Requisito</t>
   </si>
@@ -457,9 +457,6 @@
     <t>Altri Requisiti</t>
   </si>
   <si>
-    <t>Socket</t>
-  </si>
-  <si>
     <t>GestioneRecupero</t>
   </si>
   <si>
@@ -467,6 +464,9 @@
   </si>
   <si>
     <t>RVOB 1</t>
+  </si>
+  <si>
+    <t>ConnBack</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -1097,7 +1097,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>84</v>
@@ -1552,7 +1552,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
@@ -1956,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2016,30 +2016,30 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C5" s="1" t="s">
-        <v>26</v>
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C6" s="1" t="s">
-        <v>27</v>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>86</v>
@@ -2047,48 +2047,54 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C14" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
@@ -2096,15 +2102,15 @@
         <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
@@ -2112,281 +2118,225 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C28" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="C32" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C33" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C34" s="3" t="s">
-        <v>87</v>
+      <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C35" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B37" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C43" s="1" t="s">
-        <v>48</v>
+      <c r="A43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C45" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C46" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C47" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C48" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C49" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C50" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C45" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C46" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C47" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C48" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C50" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C51" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B52" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="C52" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C53" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C54" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C55" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C56" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C57" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C58" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C59" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C61" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C64" s="3"/>
+      <c r="C62" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2397,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -2465,7 +2415,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
@@ -2798,7 +2748,7 @@
         <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>10</v>
@@ -2999,7 +2949,7 @@
       <c r="A91" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3031,7 +2981,7 @@
         <v>127</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>115</v>

--- a/RQ/Esterni/Specifica Tecnica/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Specifica Tecnica/Tracciamento Classi-requisiti.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="150">
   <si>
     <t>Requisito</t>
   </si>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -1105,11 +1105,6 @@
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1">
       <c r="C29" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1">
-      <c r="C30" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1956,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2191,7 +2186,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="C30" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>148</v>
@@ -2199,115 +2194,121 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="C31" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C32" s="3" t="s">
         <v>87</v>
       </c>
     </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="C38" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="C39" s="1" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C42" s="1" t="s">
-        <v>66</v>
+      <c r="A42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="C44" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="C45" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="C46" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="C47" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="C48" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C49" s="3" t="s">
-        <v>46</v>
+      <c r="C49" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="C50" s="1" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
@@ -2315,28 +2316,17 @@
         <v>108</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C62" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RQ/Esterni/Specifica Tecnica/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Specifica Tecnica/Tracciamento Classi-requisiti.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Web" sheetId="3" r:id="rId2"/>
     <sheet name="Mobile" sheetId="4" r:id="rId3"/>
     <sheet name="Backend" sheetId="5" r:id="rId4"/>
+    <sheet name="Formato Tabella" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="154">
   <si>
     <t>Requisito</t>
   </si>
@@ -467,6 +468,18 @@
   </si>
   <si>
     <t>RFOP 29.1</t>
+  </si>
+  <si>
+    <t>RFOB 19</t>
+  </si>
+  <si>
+    <t>RFOB 20</t>
+  </si>
+  <si>
+    <t>RFOB 19.1</t>
+  </si>
+  <si>
+    <t>RFOB 13</t>
   </si>
 </sst>
 </file>
@@ -815,83 +828,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="14.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -903,7 +911,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -911,7 +919,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -919,7 +927,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -927,7 +935,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1">
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -935,7 +943,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1">
+    <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -943,7 +951,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1">
+    <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -951,314 +959,298 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1">
-      <c r="C21" s="2" t="s">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
+      <c r="C22" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1">
-      <c r="C22" s="2" t="s">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
+      <c r="C23" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="26" spans="1:4" ht="15" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+    <row r="28" spans="1:4" ht="15" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="32" spans="1:4" ht="15" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1">
+        <v>91</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1">
+        <v>92</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C35" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C42" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" ht="16.5" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C48" s="2" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="16.5" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" ht="16.5" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="16.5" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="52" spans="1:4" ht="15" customHeight="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="16.5" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
@@ -1266,7 +1258,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" ht="16.5" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
@@ -1274,7 +1266,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" ht="16.5" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
@@ -1282,7 +1274,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" ht="16.5" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
@@ -1290,39 +1282,95 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:4" ht="15" customHeight="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1">
+      <c r="A58" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="16.5" customHeight="1">
-      <c r="C58" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16.5" customHeight="1">
+      <c r="B58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="16.5" customHeight="1">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.5" customHeight="1">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5" customHeight="1">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" ht="15" customHeight="1">
+      <c r="C65" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" ht="15" customHeight="1">
+      <c r="C66" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" ht="15" customHeight="1">
+      <c r="C67" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" ht="15" customHeight="1">
+      <c r="C68" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" ht="15" customHeight="1">
+      <c r="C69" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1334,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C265"/>
+  <dimension ref="A1:D276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="C249" sqref="C249:C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1351,1169 +1399,1164 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1">
-      <c r="C13" s="1" t="s">
-        <v>96</v>
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="15" customHeight="1">
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="15" customHeight="1">
-      <c r="C18" s="2" t="s">
-        <v>13</v>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="15" customHeight="1">
-      <c r="C19" s="2" t="s">
-        <v>16</v>
+      <c r="C19" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="15" customHeight="1">
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="15" customHeight="1">
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="15" customHeight="1">
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="15" customHeight="1">
       <c r="C23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="3:3" ht="15" customHeight="1">
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="3:3" ht="15" customHeight="1">
       <c r="C25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="15" customHeight="1">
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="3:3" ht="15" customHeight="1">
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="3:3" ht="15" customHeight="1">
       <c r="C28" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" ht="15" customHeight="1">
+      <c r="C29" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" ht="15" customHeight="1">
-      <c r="C29" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="3:3" ht="15" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="3:3" ht="15" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="3:3" ht="15" customHeight="1">
       <c r="C32" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1">
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1">
       <c r="C35" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1">
+      <c r="C36" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:3" ht="15" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1">
-      <c r="C37" s="3" t="s">
+    <row r="38" spans="1:3" ht="15" customHeight="1">
+      <c r="C38" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1">
-      <c r="C38" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1">
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1">
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1">
       <c r="C43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1">
       <c r="C44" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1">
+      <c r="C45" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:3" ht="15" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1">
-      <c r="C46" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1">
       <c r="C47" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1">
       <c r="C48" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1">
       <c r="C49" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1">
       <c r="C50" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1">
       <c r="C51" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1">
+      <c r="C52" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1">
+      <c r="C53" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1">
-      <c r="C52" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1">
-      <c r="C53" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1">
       <c r="C54" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1">
       <c r="C55" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1">
       <c r="C56" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1">
       <c r="C57" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1">
       <c r="C58" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1">
+      <c r="C59" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1">
+      <c r="C60" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:3" ht="15" customHeight="1">
+      <c r="A61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1">
-      <c r="C60" s="3" t="s">
+    <row r="62" spans="1:3" ht="15" customHeight="1">
+      <c r="C62" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1">
-      <c r="C61" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1">
-      <c r="C62" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1">
       <c r="C63" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1">
       <c r="C64" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1">
       <c r="C65" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1">
       <c r="C66" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1">
       <c r="C67" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1">
+      <c r="C68" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1">
+      <c r="C69" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1">
-      <c r="A68" s="1" t="s">
+    <row r="70" spans="1:3" ht="15" customHeight="1">
+      <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1">
-      <c r="C69" s="3" t="s">
+    <row r="71" spans="1:3" ht="15" customHeight="1">
+      <c r="C71" s="3" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1">
-      <c r="C70" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1">
-      <c r="C71" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1">
       <c r="C72" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1">
       <c r="C73" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1">
       <c r="C74" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1">
       <c r="C75" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" customHeight="1">
       <c r="C76" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" customHeight="1">
+      <c r="C77" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" customHeight="1">
+      <c r="C78" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1">
-      <c r="A77" s="1" t="s">
+    <row r="79" spans="1:3" ht="15" customHeight="1">
+      <c r="A79" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1">
-      <c r="C78" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1">
-      <c r="C79" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" customHeight="1">
       <c r="C80" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" customHeight="1">
       <c r="C81" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" customHeight="1">
-      <c r="C82" s="3" t="s">
-        <v>53</v>
+      <c r="C82" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" customHeight="1">
       <c r="C83" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" customHeight="1">
       <c r="C84" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1">
       <c r="C85" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" customHeight="1">
       <c r="C86" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1">
       <c r="C87" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1">
       <c r="C88" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" customHeight="1">
-      <c r="C89" s="1" t="s">
-        <v>96</v>
+      <c r="A89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" customHeight="1">
-      <c r="A90" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C90" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" customHeight="1">
-      <c r="C91" s="3" t="s">
-        <v>55</v>
+      <c r="C91" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" customHeight="1">
       <c r="C92" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" customHeight="1">
       <c r="C93" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" customHeight="1">
       <c r="C94" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" customHeight="1">
       <c r="C95" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" customHeight="1">
       <c r="C96" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" customHeight="1">
       <c r="C97" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" customHeight="1">
-      <c r="C98" s="1" t="s">
-        <v>96</v>
+      <c r="A98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" customHeight="1">
-      <c r="A99" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C99" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" customHeight="1">
-      <c r="C100" s="3" t="s">
-        <v>55</v>
+      <c r="C100" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15" customHeight="1">
       <c r="C101" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1">
       <c r="C102" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" customHeight="1">
       <c r="C103" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" customHeight="1">
       <c r="C104" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" customHeight="1">
       <c r="C105" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1">
       <c r="C106" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" customHeight="1">
-      <c r="C107" s="1" t="s">
-        <v>96</v>
+      <c r="A107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" customHeight="1">
-      <c r="A108" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C108" s="3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" customHeight="1">
-      <c r="C109" s="3" t="s">
-        <v>63</v>
+      <c r="C109" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" customHeight="1">
       <c r="C110" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" customHeight="1">
       <c r="C111" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15" customHeight="1">
       <c r="C112" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" customHeight="1">
       <c r="C113" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" customHeight="1">
       <c r="C114" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15" customHeight="1">
       <c r="C115" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" customHeight="1">
-      <c r="C116" s="1" t="s">
-        <v>96</v>
+      <c r="A116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15" customHeight="1">
-      <c r="A117" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C117" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" customHeight="1">
       <c r="C118" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" customHeight="1">
-      <c r="C119" s="3" t="s">
-        <v>61</v>
+      <c r="C119" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" customHeight="1">
       <c r="C120" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15" customHeight="1">
       <c r="C121" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15" customHeight="1">
       <c r="C122" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15" customHeight="1">
       <c r="C123" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15" customHeight="1">
       <c r="C124" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15" customHeight="1">
       <c r="C125" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15" customHeight="1">
-      <c r="C126" s="1" t="s">
-        <v>96</v>
+      <c r="A126" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15" customHeight="1">
-      <c r="A127" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C127" s="3" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15" customHeight="1">
-      <c r="C128" s="3" t="s">
-        <v>66</v>
+      <c r="C128" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15" customHeight="1">
       <c r="C129" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15" customHeight="1">
       <c r="C130" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15" customHeight="1">
       <c r="C131" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15" customHeight="1">
       <c r="C132" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15" customHeight="1">
       <c r="C133" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15" customHeight="1">
       <c r="C134" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15" customHeight="1">
-      <c r="C135" s="1" t="s">
-        <v>96</v>
+      <c r="A135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15" customHeight="1">
-      <c r="A136" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C136" s="3" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" customHeight="1">
-      <c r="C137" s="3" t="s">
-        <v>65</v>
+      <c r="C137" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15" customHeight="1">
       <c r="C138" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15" customHeight="1">
       <c r="C139" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15" customHeight="1">
       <c r="C140" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15" customHeight="1">
       <c r="C141" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15" customHeight="1">
       <c r="C142" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" customHeight="1">
       <c r="C143" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" customHeight="1">
+      <c r="A144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1">
+      <c r="C145" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1">
+      <c r="C146" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1">
+      <c r="C147" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1">
+      <c r="C148" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1">
+      <c r="C149" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" customHeight="1">
+      <c r="C150" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1">
-      <c r="C144" s="1" t="s">
+    <row r="151" spans="1:4" ht="15" customHeight="1">
+      <c r="C151" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1">
-      <c r="A145" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1">
-      <c r="C146" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1">
-      <c r="C147" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1">
-      <c r="C148" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1">
-      <c r="C149" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1">
-      <c r="C150" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1">
-      <c r="C151" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1">
-      <c r="C152" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1">
+    <row r="153" spans="1:4" ht="15" customHeight="1">
+      <c r="A153" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C153" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1">
       <c r="C154" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1">
-      <c r="A156" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1">
+      <c r="C155" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1">
+      <c r="C156" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1">
+      <c r="C157" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1">
+      <c r="C158" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1">
+      <c r="A159" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="15" customHeight="1">
-      <c r="C157" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1">
-      <c r="C158" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="15" customHeight="1">
-      <c r="C159" s="1" t="s">
+      <c r="B159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1">
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="3:3" ht="15" customHeight="1">
+      <c r="C161" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" ht="15" customHeight="1">
+      <c r="C162" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" ht="15" customHeight="1">
+      <c r="C163" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" ht="15" customHeight="1">
+      <c r="C164" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" ht="15" customHeight="1">
+      <c r="C165" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" ht="15" customHeight="1">
+      <c r="C166" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" ht="15" customHeight="1">
+      <c r="C167" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" ht="15" customHeight="1">
+      <c r="C168" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" ht="15" customHeight="1">
+      <c r="C169" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" ht="15" customHeight="1">
+      <c r="C170" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" ht="15" customHeight="1">
+      <c r="C171" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" ht="15" customHeight="1">
+      <c r="C172" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" ht="15" customHeight="1">
+      <c r="C173" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" ht="15" customHeight="1">
+      <c r="C174" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" ht="15" customHeight="1">
+      <c r="C175" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" ht="15" customHeight="1">
+      <c r="C176" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" customHeight="1">
+      <c r="C177" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" customHeight="1">
+      <c r="C178" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4" ht="15" customHeight="1">
+      <c r="C179" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4" ht="15" customHeight="1">
+      <c r="C180" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4" ht="15" customHeight="1">
+      <c r="C181" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4" ht="15" customHeight="1">
+      <c r="C182" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:4" ht="15" customHeight="1">
+      <c r="C183" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="1:4" ht="15" customHeight="1">
+      <c r="C184" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="1:4" ht="15" customHeight="1">
+      <c r="C185" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:4" ht="15" customHeight="1">
+      <c r="C186" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:4" ht="15" customHeight="1">
+      <c r="C187" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="15" customHeight="1">
-      <c r="C160" s="1" t="s">
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:4" ht="15" customHeight="1">
+      <c r="C188" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="15" customHeight="1">
-      <c r="C161" s="1" t="s">
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="1:4" ht="15" customHeight="1">
+      <c r="C189" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15" customHeight="1">
-      <c r="A162" s="1" t="s">
+    <row r="190" spans="1:4" ht="15" customHeight="1">
+      <c r="A190" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="15" customHeight="1">
-      <c r="C163" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="15" customHeight="1">
-      <c r="C164" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="15" customHeight="1">
-      <c r="C165" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="15" customHeight="1">
-      <c r="C166" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="15" customHeight="1">
-      <c r="C167" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="15" customHeight="1">
-      <c r="C168" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="15" customHeight="1">
-      <c r="C169" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="15" customHeight="1">
-      <c r="C170" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="15" customHeight="1">
-      <c r="C171" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="15" customHeight="1">
-      <c r="C172" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="15" customHeight="1">
-      <c r="C173" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="15" customHeight="1">
-      <c r="C174" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="15" customHeight="1">
-      <c r="C175" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="15" customHeight="1">
-      <c r="C176" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="15" customHeight="1">
-      <c r="C177" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15" customHeight="1">
-      <c r="C178" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="15" customHeight="1">
-      <c r="C179" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="15" customHeight="1">
-      <c r="A180" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B180" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="15" customHeight="1">
-      <c r="C181" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="15" customHeight="1">
-      <c r="C182" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="15" customHeight="1">
-      <c r="C183" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="15" customHeight="1">
-      <c r="A184" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="15" customHeight="1">
-      <c r="C185" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="15" customHeight="1">
-      <c r="C186" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="15" customHeight="1">
-      <c r="C187" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="15" customHeight="1">
-      <c r="C188" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15" customHeight="1">
-      <c r="C189" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="15" customHeight="1">
-      <c r="C190" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="15" customHeight="1">
-      <c r="C191" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="15" customHeight="1">
-      <c r="C192" s="1" t="s">
-        <v>93</v>
+      <c r="C190" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15" customHeight="1">
+      <c r="C191" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15" customHeight="1">
+      <c r="C192" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15" customHeight="1">
       <c r="C193" s="1" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15" customHeight="1">
       <c r="C194" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" customHeight="1">
+      <c r="C195" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15" customHeight="1">
-      <c r="A195" s="1" t="s">
+    <row r="196" spans="1:3" ht="15" customHeight="1">
+      <c r="A196" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="15" customHeight="1">
+      <c r="B196" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C196" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15" customHeight="1">
-      <c r="C197" s="1" t="s">
-        <v>93</v>
+      <c r="C197" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15" customHeight="1">
-      <c r="C198" s="1" t="s">
-        <v>134</v>
+      <c r="C198" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15" customHeight="1">
-      <c r="C199" s="1" t="s">
-        <v>128</v>
+      <c r="C199" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" customHeight="1">
-      <c r="A200" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C200" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15" customHeight="1">
       <c r="C201" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15" customHeight="1">
-      <c r="C202" s="1" t="s">
-        <v>93</v>
+      <c r="C202" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15" customHeight="1">
-      <c r="C203" s="1" t="s">
-        <v>134</v>
+      <c r="C203" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15" customHeight="1">
       <c r="C204" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" customHeight="1">
+      <c r="C205" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" customHeight="1">
+      <c r="C206" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15" customHeight="1">
-      <c r="A205" s="1" t="s">
+    <row r="207" spans="1:3" ht="15" customHeight="1">
+      <c r="A207" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="15" customHeight="1">
-      <c r="C206" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="15" customHeight="1">
+      <c r="B207" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C207" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15" customHeight="1">
       <c r="C208" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15" customHeight="1">
@@ -2536,200 +2579,200 @@
         <v>70</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15" customHeight="1">
       <c r="C213" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15" customHeight="1">
       <c r="C214" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15" customHeight="1">
+      <c r="C215" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15" customHeight="1">
+      <c r="C216" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15" customHeight="1">
+      <c r="A217" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15" customHeight="1">
+      <c r="C218" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15" customHeight="1">
+      <c r="C219" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15" customHeight="1">
-      <c r="C215" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="15" customHeight="1">
-      <c r="C216" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="15" customHeight="1">
-      <c r="C217" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="15" customHeight="1">
-      <c r="C218" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="15" customHeight="1">
-      <c r="C219" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="220" spans="1:3" ht="15" customHeight="1">
-      <c r="A220" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C220" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" customHeight="1">
       <c r="C221" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" customHeight="1">
-      <c r="C222" s="1" t="s">
-        <v>93</v>
+      <c r="C222" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" customHeight="1">
       <c r="C223" s="1" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" customHeight="1">
       <c r="C224" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15" customHeight="1">
+      <c r="C225" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15" customHeight="1">
-      <c r="A225" s="1" t="s">
+    <row r="226" spans="1:3" ht="15" customHeight="1">
+      <c r="A226" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="15" customHeight="1">
+      <c r="B226" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C226" s="3" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="15" customHeight="1">
       <c r="C227" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="15" customHeight="1">
-      <c r="C228" s="3" t="s">
-        <v>97</v>
+      <c r="C228" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="15" customHeight="1">
       <c r="C229" s="1" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15" customHeight="1">
       <c r="C230" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="15" customHeight="1">
-      <c r="C231" s="1" t="s">
-        <v>128</v>
+      <c r="A231" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="15" customHeight="1">
-      <c r="A232" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C232" s="3" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="15" customHeight="1">
-      <c r="C233" s="3" t="s">
-        <v>66</v>
+      <c r="C233" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="15" customHeight="1">
       <c r="C234" s="1" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="15" customHeight="1">
       <c r="C235" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="15" customHeight="1">
-      <c r="C236" s="1" t="s">
-        <v>128</v>
+      <c r="A236" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="15" customHeight="1">
-      <c r="A237" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C237" s="3" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="15" customHeight="1">
       <c r="C238" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="15" customHeight="1">
-      <c r="C239" s="1" t="s">
-        <v>93</v>
+      <c r="C239" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="15" customHeight="1">
       <c r="C240" s="1" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="15" customHeight="1">
       <c r="C241" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15" customHeight="1">
+      <c r="C242" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15" customHeight="1">
-      <c r="A242" s="1" t="s">
+    <row r="243" spans="1:3" ht="15" customHeight="1">
+      <c r="A243" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="15" customHeight="1">
+      <c r="B243" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C243" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="15" customHeight="1">
-      <c r="C244" s="1" t="s">
-        <v>55</v>
+      <c r="C244" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="15" customHeight="1">
@@ -2752,51 +2795,51 @@
         <v>70</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="15" customHeight="1">
       <c r="C249" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="15" customHeight="1">
-      <c r="C250" s="3" t="s">
-        <v>19</v>
+      <c r="C250" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="15" customHeight="1">
       <c r="C251" s="1" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="15" customHeight="1">
       <c r="C252" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="15" customHeight="1">
-      <c r="C253" s="1" t="s">
-        <v>128</v>
+      <c r="A253" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="15" customHeight="1">
-      <c r="A254" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C254" s="3" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="15" customHeight="1">
-      <c r="C255" s="3" t="s">
-        <v>12</v>
+      <c r="C255" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="15" customHeight="1">
@@ -2819,39 +2862,106 @@
         <v>70</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="15" customHeight="1">
       <c r="C260" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="15" customHeight="1">
       <c r="C261" s="3" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15" customHeight="1">
-      <c r="C262" s="3" t="s">
-        <v>87</v>
+      <c r="C262" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="15" customHeight="1">
       <c r="C263" s="1" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="15" customHeight="1">
       <c r="C264" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="15" customHeight="1">
+      <c r="A265" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="15" customHeight="1">
+      <c r="C266" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15" customHeight="1">
+      <c r="C267" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15" customHeight="1">
+      <c r="C268" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15" customHeight="1">
-      <c r="C265" s="1" t="s">
+    <row r="269" spans="1:3" ht="15" customHeight="1">
+      <c r="C269" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15" customHeight="1">
+      <c r="A270" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15" customHeight="1">
+      <c r="C271" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15" customHeight="1">
+      <c r="C272" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" ht="15" customHeight="1">
+      <c r="C273" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" ht="15" customHeight="1">
+      <c r="C274" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" ht="15" customHeight="1">
+      <c r="C275" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" ht="15" customHeight="1">
+      <c r="C276" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2863,13 +2973,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
@@ -2878,69 +2988,58 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="C5" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="C6" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="C8" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="C9" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C10" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -2951,485 +3050,488 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="C17" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="C18" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="C19" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="C20" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="C21" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="C22" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C24" s="3" t="s">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
+      <c r="C25" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C25" s="3" t="s">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
+      <c r="C26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C26" s="1" t="s">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
+      <c r="C27" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C27" s="1" t="s">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
+      <c r="C28" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C28" s="1" t="s">
+    <row r="29" spans="1:3" ht="15" customHeight="1">
+      <c r="C29" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C29" s="1" t="s">
+    <row r="30" spans="1:3" ht="15" customHeight="1">
+      <c r="C30" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C30" s="1" t="s">
+    <row r="31" spans="1:3" ht="15" customHeight="1">
+      <c r="C31" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C31" s="1" t="s">
+    <row r="32" spans="1:3" ht="15" customHeight="1">
+      <c r="C32" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:3" ht="15" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C33" s="3" t="s">
+    <row r="35" spans="1:3" ht="15" customHeight="1">
+      <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C34" s="1" t="s">
+    <row r="36" spans="1:3" ht="15" customHeight="1">
+      <c r="C36" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C35" s="1" t="s">
+    <row r="37" spans="1:3" ht="15" customHeight="1">
+      <c r="C37" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C36" s="1" t="s">
+    <row r="38" spans="1:3" ht="15" customHeight="1">
+      <c r="C38" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C37" s="1" t="s">
+    <row r="39" spans="1:3" ht="15" customHeight="1">
+      <c r="C39" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C38" s="1" t="s">
+    <row r="40" spans="1:3" ht="15" customHeight="1">
+      <c r="C40" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C39" s="1" t="s">
+    <row r="41" spans="1:3" ht="15" customHeight="1">
+      <c r="C41" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+    <row r="43" spans="1:3" ht="15" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C41" s="3" t="s">
+    <row r="44" spans="1:3" ht="15" customHeight="1">
+      <c r="C44" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C42" s="1" t="s">
+    <row r="45" spans="1:3" ht="15" customHeight="1">
+      <c r="C45" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C43" s="1" t="s">
+    <row r="46" spans="1:3" ht="15" customHeight="1">
+      <c r="C46" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C44" s="1" t="s">
+    <row r="47" spans="1:3" ht="15" customHeight="1">
+      <c r="C47" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C45" s="1" t="s">
+    <row r="48" spans="1:3" ht="15" customHeight="1">
+      <c r="C48" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C46" s="1" t="s">
+    <row r="49" spans="1:3" ht="15" customHeight="1">
+      <c r="C49" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C47" s="1" t="s">
+    <row r="50" spans="1:3" ht="15" customHeight="1">
+      <c r="C50" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+    <row r="52" spans="1:3" ht="15" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C49" s="3" t="s">
+    <row r="53" spans="1:3" ht="15" customHeight="1">
+      <c r="C53" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C50" s="3" t="s">
+    <row r="54" spans="1:3" ht="15" customHeight="1">
+      <c r="C54" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C51" s="3" t="s">
+    <row r="55" spans="1:3" ht="15" customHeight="1">
+      <c r="C55" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C52" s="3" t="s">
+    <row r="56" spans="1:3" ht="15" customHeight="1">
+      <c r="C56" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C53" s="3" t="s">
+    <row r="57" spans="1:3" ht="15" customHeight="1">
+      <c r="C57" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C54" s="3" t="s">
+    <row r="58" spans="1:3" ht="15" customHeight="1">
+      <c r="C58" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C55" s="3" t="s">
+    <row r="59" spans="1:3" ht="15" customHeight="1">
+      <c r="C59" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C56" s="3" t="s">
+    <row r="60" spans="1:3" ht="15" customHeight="1">
+      <c r="C60" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C57" s="1" t="s">
+    <row r="61" spans="1:3" ht="15" customHeight="1">
+      <c r="C61" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C58" s="1" t="s">
+    <row r="62" spans="1:3" ht="15" customHeight="1">
+      <c r="C62" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C59" s="1" t="s">
+    <row r="63" spans="1:3" ht="15" customHeight="1">
+      <c r="C63" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C60" s="1" t="s">
+    <row r="64" spans="1:3" ht="15" customHeight="1">
+      <c r="C64" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C61" s="1" t="s">
+    <row r="65" spans="1:4" ht="15" customHeight="1">
+      <c r="C65" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C62" s="1" t="s">
+    <row r="66" spans="1:4" ht="15" customHeight="1">
+      <c r="C66" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
+    <row r="68" spans="1:4" ht="15" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C64" s="3" t="s">
+    <row r="69" spans="1:4" ht="15" customHeight="1">
+      <c r="C69" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C65" s="1" t="s">
+    <row r="70" spans="1:4" ht="15" customHeight="1">
+      <c r="C70" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C66" s="1" t="s">
+    <row r="71" spans="1:4" ht="15" customHeight="1">
+      <c r="C71" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C67" s="1" t="s">
+    <row r="72" spans="1:4" ht="15" customHeight="1">
+      <c r="C72" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C68" s="1" t="s">
+    <row r="73" spans="1:4" ht="15" customHeight="1">
+      <c r="C73" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C69" s="1" t="s">
+    <row r="74" spans="1:4" ht="15" customHeight="1">
+      <c r="C74" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C70" s="1" t="s">
+    <row r="75" spans="1:4" ht="15" customHeight="1">
+      <c r="C75" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A72" s="1" t="s">
+    <row r="78" spans="1:4" ht="15" customHeight="1">
+      <c r="A78" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C73" s="3" t="s">
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1">
+      <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C74" s="3" t="s">
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1">
+      <c r="C80" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C75" s="1" t="s">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1">
+      <c r="C81" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C76" s="1" t="s">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1">
+      <c r="C82" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A78" s="1" t="s">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1">
+      <c r="A85" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A79" s="1" t="s">
+    <row r="87" spans="1:4" ht="15" customHeight="1">
+      <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C80" s="1" t="s">
+    <row r="88" spans="1:4" ht="15" customHeight="1">
+      <c r="C88" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C81" s="1" t="s">
+    <row r="89" spans="1:4" ht="15" customHeight="1">
+      <c r="C89" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A82" s="1" t="s">
+    <row r="91" spans="1:4" ht="15" customHeight="1">
+      <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C83" s="3" t="s">
+    <row r="92" spans="1:4" ht="15" customHeight="1">
+      <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C84" s="3" t="s">
+    <row r="93" spans="1:4" ht="15" customHeight="1">
+      <c r="C93" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C85" s="3" t="s">
+    <row r="94" spans="1:4" ht="15" customHeight="1">
+      <c r="C94" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C86" s="3" t="s">
+    <row r="95" spans="1:4" ht="15" customHeight="1">
+      <c r="C95" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C87" s="3" t="s">
+    <row r="96" spans="1:4" ht="15" customHeight="1">
+      <c r="C96" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C88" s="3" t="s">
+    <row r="97" spans="1:3" ht="15" customHeight="1">
+      <c r="C97" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C89" s="3" t="s">
+    <row r="98" spans="1:3" ht="15" customHeight="1">
+      <c r="C98" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C90" s="1" t="s">
+    <row r="99" spans="1:3" ht="15" customHeight="1">
+      <c r="C99" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C91" s="1" t="s">
+    <row r="100" spans="1:3" ht="15" customHeight="1">
+      <c r="C100" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A92" s="1" t="s">
+    <row r="102" spans="1:3" ht="15" customHeight="1">
+      <c r="A102" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A93" s="1" t="s">
+    <row r="104" spans="1:3" ht="15" customHeight="1">
+      <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C103" s="3"/>
+    <row r="113" spans="3:3" ht="15" customHeight="1">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" ht="15" customHeight="1">
+      <c r="C114" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3438,10 +3540,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A214" sqref="A214:XFD214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -3455,58 +3557,47 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="C8" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="C9" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3577,66 +3668,50 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
-      <c r="C23" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="C25" s="1" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="C26" s="1" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="C28" s="1" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="C29" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1">
+      <c r="C30" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1">
-      <c r="C32" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1">
@@ -3644,195 +3719,171 @@
         <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1">
       <c r="C34" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1">
+      <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1">
-      <c r="C35" s="1" t="s">
+    <row r="38" spans="1:3" ht="15" customHeight="1">
+      <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1">
-      <c r="C36" s="1" t="s">
+    <row r="39" spans="1:3" ht="15" customHeight="1">
+      <c r="C39" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1">
-      <c r="A37" s="1" t="s">
+    <row r="41" spans="1:3" ht="15" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1">
-      <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1">
-      <c r="C39" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1">
-      <c r="C40" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1">
-      <c r="C41" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1">
       <c r="C42" s="3" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1">
       <c r="C43" s="3" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1">
       <c r="C44" s="3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1">
       <c r="C45" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1">
       <c r="C46" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1">
       <c r="C47" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C48" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1">
       <c r="C49" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1">
       <c r="C50" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1">
       <c r="C51" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1">
-      <c r="C52" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1">
+      <c r="C54" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1">
+      <c r="C55" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1">
+      <c r="C56" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1">
+      <c r="C57" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1">
-      <c r="C54" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1">
-      <c r="A55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1">
-      <c r="C56" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1">
-      <c r="A57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1">
-      <c r="C58" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1">
-      <c r="C59" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1">
       <c r="C60" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1">
-      <c r="C61" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C62" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1">
       <c r="C63" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1">
-      <c r="C64" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1">
@@ -3840,698 +3891,609 @@
         <v>112</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1">
       <c r="C66" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1">
       <c r="C67" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1">
       <c r="C68" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1">
       <c r="C70" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" customHeight="1">
-      <c r="A71" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1">
       <c r="C72" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1">
-      <c r="A73" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1">
+      <c r="B74" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C74" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1">
       <c r="C75" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" customHeight="1">
-      <c r="A76" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1">
       <c r="C77" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1">
-      <c r="C78" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C79" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" customHeight="1">
       <c r="C80" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" customHeight="1">
+      <c r="C83" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" customHeight="1">
+      <c r="A85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" customHeight="1">
+      <c r="C86" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" customHeight="1">
+      <c r="C87" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" customHeight="1">
+      <c r="C90" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" customHeight="1">
+      <c r="C91" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" customHeight="1">
+      <c r="C92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" customHeight="1">
+      <c r="C93" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="3:3" ht="15" customHeight="1">
-      <c r="C81" s="3" t="s">
+    <row r="94" spans="1:3" ht="15" customHeight="1">
+      <c r="C94" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="3:3" ht="15" customHeight="1">
-      <c r="C82" s="3" t="s">
+    <row r="95" spans="1:3" ht="15" customHeight="1">
+      <c r="C95" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="3:3" ht="15" customHeight="1">
-      <c r="C83" s="3" t="s">
+    <row r="96" spans="1:3" ht="15" customHeight="1">
+      <c r="C96" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="3:3" ht="15" customHeight="1">
-      <c r="C84" s="3" t="s">
+    <row r="97" spans="3:3" ht="15" customHeight="1">
+      <c r="C97" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="3:3" ht="15" customHeight="1">
-      <c r="C85" s="3" t="s">
+    <row r="98" spans="3:3" ht="15" customHeight="1">
+      <c r="C98" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="3:3" ht="15" customHeight="1">
-      <c r="C86" s="3" t="s">
+    <row r="99" spans="3:3" ht="15" customHeight="1">
+      <c r="C99" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="3:3" ht="15" customHeight="1">
-      <c r="C87" s="3" t="s">
+    <row r="100" spans="3:3" ht="15" customHeight="1">
+      <c r="C100" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="3:3" ht="15" customHeight="1">
-      <c r="C88" s="3" t="s">
+    <row r="101" spans="3:3" ht="15" customHeight="1">
+      <c r="C101" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="3:3" ht="15" customHeight="1">
-      <c r="C89" s="3" t="s">
+    <row r="102" spans="3:3" ht="15" customHeight="1">
+      <c r="C102" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="3:3" ht="15" customHeight="1">
-      <c r="C90" s="3" t="s">
+    <row r="103" spans="3:3" ht="15" customHeight="1">
+      <c r="C103" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="3:3" ht="15" customHeight="1">
-      <c r="C91" s="3" t="s">
+    <row r="104" spans="3:3" ht="15" customHeight="1">
+      <c r="C104" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" ht="15" customHeight="1">
-      <c r="C92" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" ht="15" customHeight="1">
-      <c r="C93" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" ht="15" customHeight="1">
-      <c r="C94" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" ht="15" customHeight="1">
-      <c r="C95" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" ht="15" customHeight="1">
-      <c r="C96" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" ht="15" customHeight="1">
-      <c r="C97" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" ht="15" customHeight="1">
-      <c r="C98" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" ht="15" customHeight="1">
-      <c r="C99" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" ht="15" customHeight="1">
-      <c r="C100" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" ht="15" customHeight="1">
-      <c r="C101" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" ht="15" customHeight="1">
-      <c r="C102" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" ht="15" customHeight="1">
-      <c r="C103" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" ht="15" customHeight="1">
-      <c r="C104" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="105" spans="3:3" ht="15" customHeight="1">
       <c r="C105" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="3:3" ht="15" customHeight="1">
       <c r="C106" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="3:3" ht="15" customHeight="1">
       <c r="C107" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="3:3" ht="15" customHeight="1">
-      <c r="C108" s="3" t="s">
-        <v>33</v>
+      <c r="C108" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="3:3" ht="15" customHeight="1">
-      <c r="C109" s="3" t="s">
-        <v>63</v>
+      <c r="C109" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="3:3" ht="15" customHeight="1">
-      <c r="C110" s="3" t="s">
-        <v>34</v>
+      <c r="C110" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="3:3" ht="15" customHeight="1">
-      <c r="C111" s="3" t="s">
-        <v>60</v>
+      <c r="C111" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="3:3" ht="15" customHeight="1">
-      <c r="C112" s="3" t="s">
-        <v>61</v>
+      <c r="C112" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" customHeight="1">
+      <c r="C113" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" customHeight="1">
-      <c r="A114" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15" customHeight="1">
       <c r="C115" s="1" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" customHeight="1">
       <c r="C116" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15" customHeight="1">
       <c r="C117" s="1" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" customHeight="1">
-      <c r="A118" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C118" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" customHeight="1">
       <c r="C119" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" customHeight="1">
       <c r="C120" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" customHeight="1">
+      <c r="C121" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" customHeight="1">
+      <c r="C122" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" customHeight="1">
+      <c r="C123" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" customHeight="1">
+      <c r="C124" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" customHeight="1">
+      <c r="C125" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" customHeight="1">
+      <c r="A128" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" customHeight="1">
+      <c r="C129" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" customHeight="1">
+      <c r="C130" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15" customHeight="1">
-      <c r="C121" s="1" t="s">
+    <row r="131" spans="1:3" ht="15" customHeight="1">
+      <c r="C131" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15" customHeight="1">
-      <c r="A122" s="1" t="s">
+    <row r="133" spans="1:3" ht="15" customHeight="1">
+      <c r="A133" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B133" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" customHeight="1">
+      <c r="C134" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" customHeight="1">
+      <c r="C135" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" customHeight="1">
+      <c r="C136" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" customHeight="1">
+      <c r="A138" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15" customHeight="1">
-      <c r="C123" s="1" t="s">
+    <row r="139" spans="1:3" ht="15" customHeight="1">
+      <c r="C139" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15" customHeight="1">
-      <c r="C124" s="1" t="s">
+    <row r="140" spans="1:3" ht="15" customHeight="1">
+      <c r="C140" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15" customHeight="1">
-      <c r="A125" s="1" t="s">
+    <row r="142" spans="1:3" ht="15" customHeight="1">
+      <c r="A142" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15" customHeight="1">
-      <c r="C126" s="1" t="s">
+    <row r="143" spans="1:3" ht="15" customHeight="1">
+      <c r="C143" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15" customHeight="1">
-      <c r="C127" s="1" t="s">
+    <row r="144" spans="1:3" ht="15" customHeight="1">
+      <c r="C144" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15" customHeight="1">
-      <c r="C128" s="1" t="s">
+    <row r="145" spans="1:4" ht="15" customHeight="1">
+      <c r="C145" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
-      <c r="C129" s="1" t="s">
+    <row r="146" spans="1:4" ht="15" customHeight="1">
+      <c r="C146" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
-      <c r="C130" s="1" t="s">
+    <row r="147" spans="1:4" ht="15" customHeight="1">
+      <c r="C147" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
-      <c r="C131" s="1" t="s">
+    <row r="148" spans="1:4" ht="15" customHeight="1">
+      <c r="C148" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
-      <c r="C132" s="1" t="s">
+    <row r="149" spans="1:4" ht="15" customHeight="1">
+      <c r="C149" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
-      <c r="C133" s="1" t="s">
+    <row r="150" spans="1:4" ht="15" customHeight="1">
+      <c r="C150" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
-      <c r="C134" s="1" t="s">
+    <row r="151" spans="1:4" ht="15" customHeight="1">
+      <c r="C151" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
-      <c r="A135" s="1" t="s">
+    <row r="153" spans="1:4" ht="15" customHeight="1">
+      <c r="A153" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
-      <c r="C136" s="3" t="s">
+    <row r="154" spans="1:4" ht="15" customHeight="1">
+      <c r="C154" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
-      <c r="C137" s="3" t="s">
+    <row r="155" spans="1:4" ht="15" customHeight="1">
+      <c r="C155" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
-      <c r="C138" s="3" t="s">
+    <row r="156" spans="1:4" ht="15" customHeight="1">
+      <c r="C156" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
-      <c r="C139" s="3" t="s">
+    <row r="157" spans="1:4" ht="15" customHeight="1">
+      <c r="C157" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
-      <c r="C140" s="3" t="s">
+    <row r="158" spans="1:4" ht="15" customHeight="1">
+      <c r="C158" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
-      <c r="C141" s="3" t="s">
+    <row r="159" spans="1:4" ht="15" customHeight="1">
+      <c r="C159" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
-      <c r="C142" s="1" t="s">
+    <row r="160" spans="1:4" ht="15" customHeight="1">
+      <c r="C160" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
-      <c r="C143" s="3" t="s">
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="1:3" ht="15" customHeight="1">
+      <c r="C161" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
-      <c r="C144" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1">
-      <c r="C145" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1">
-      <c r="A146" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1">
-      <c r="C147" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1">
-      <c r="A148" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1">
-      <c r="C149" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1">
-      <c r="A150" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1">
-      <c r="C151" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1">
-      <c r="C152" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1">
-      <c r="C153" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1">
-      <c r="C154" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15" customHeight="1">
-      <c r="A155" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1">
-      <c r="C156" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1">
-      <c r="A158" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="15" customHeight="1">
-      <c r="C159" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15" customHeight="1">
-      <c r="C160" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="15" customHeight="1">
-      <c r="A161" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15" customHeight="1">
       <c r="C162" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" customHeight="1">
       <c r="C163" s="3" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15" customHeight="1">
-      <c r="A164" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3" ht="15" customHeight="1">
+      <c r="A165" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C165" s="1" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15" customHeight="1">
       <c r="C166" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="15" customHeight="1">
-      <c r="C167" s="1" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15" customHeight="1">
+      <c r="A168" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="C168" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15" customHeight="1">
       <c r="C169" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="15" customHeight="1">
-      <c r="C170" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15" customHeight="1">
-      <c r="C171" s="1" t="s">
-        <v>53</v>
+      <c r="A171" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15" customHeight="1">
-      <c r="C172" s="1" t="s">
-        <v>29</v>
+      <c r="C172" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15" customHeight="1">
-      <c r="C173" s="1" t="s">
-        <v>50</v>
+      <c r="C173" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15" customHeight="1">
-      <c r="A174" s="1" t="s">
+      <c r="C174" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" customHeight="1">
+      <c r="C175" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" customHeight="1">
+      <c r="A177" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" customHeight="1">
+      <c r="C178" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" customHeight="1">
+      <c r="A181" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="15" customHeight="1">
-      <c r="C175" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="15" customHeight="1">
-      <c r="C176" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="15" customHeight="1">
-      <c r="C177" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15" customHeight="1">
-      <c r="C178" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="15" customHeight="1">
-      <c r="C179" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="15" customHeight="1">
-      <c r="C180" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="15" customHeight="1">
+      <c r="B181" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C181" s="1" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15" customHeight="1">
-      <c r="C182" s="3" t="s">
-        <v>63</v>
+      <c r="C182" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15" customHeight="1">
-      <c r="C183" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="15" customHeight="1">
-      <c r="C184" s="3" t="s">
-        <v>61</v>
+      <c r="C183" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15" customHeight="1">
@@ -4539,40 +4501,184 @@
         <v>108</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>66</v>
+        <v>132</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15" customHeight="1">
-      <c r="C186" s="1" t="s">
-        <v>65</v>
+      <c r="C186" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15" customHeight="1">
-      <c r="A187" s="1" t="s">
+      <c r="C187" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" customHeight="1">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="1:3" ht="15" customHeight="1">
+      <c r="A189" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="15" customHeight="1">
-      <c r="C188" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15" customHeight="1">
+      <c r="B189" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="C189" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15" customHeight="1">
       <c r="C190" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" customHeight="1">
+      <c r="C191" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" customHeight="1">
+      <c r="C192" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" customHeight="1">
+      <c r="C193" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" customHeight="1">
+      <c r="C194" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" customHeight="1">
+      <c r="C195" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" customHeight="1">
+      <c r="C196" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" customHeight="1">
+      <c r="C197" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" customHeight="1">
+      <c r="C198" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" customHeight="1">
+      <c r="A200" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" customHeight="1">
+      <c r="C201" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" customHeight="1">
+      <c r="C202" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" customHeight="1">
+      <c r="C203" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" customHeight="1">
+      <c r="C204" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" customHeight="1">
+      <c r="C205" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" customHeight="1">
+      <c r="C206" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15" customHeight="1">
+      <c r="C207" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" customHeight="1">
+      <c r="C208" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15" customHeight="1">
+      <c r="C209" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15" customHeight="1">
+      <c r="C210" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15" customHeight="1">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="1:3" ht="15" customHeight="1">
+      <c r="A212" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15" customHeight="1">
+      <c r="C213" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15" customHeight="1">
+      <c r="A215" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15" customHeight="1">
+      <c r="C216" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15" customHeight="1">
+      <c r="C217" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15" customHeight="1">
+      <c r="C218" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4580,4 +4686,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RQ/Esterni/Specifica Tecnica/Tracciamento Classi-requisiti.xlsx
+++ b/RQ/Esterni/Specifica Tecnica/Tracciamento Classi-requisiti.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="10515" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,6 @@
     <t>MostraStatAA</t>
   </si>
   <si>
-    <t>RecuperoPassD</t>
-  </si>
-  <si>
     <t>RFOB 4.1</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
     <t>ControlModDatiAS</t>
   </si>
   <si>
-    <t>ControlRecuperoPassD</t>
-  </si>
-  <si>
     <t>ConnHandler</t>
   </si>
   <si>
@@ -486,6 +480,12 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>ControlRecuperoPass</t>
+  </si>
+  <si>
+    <t>RecuperoPass</t>
   </si>
 </sst>
 </file>
@@ -858,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
@@ -868,47 +868,47 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
@@ -916,7 +916,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
@@ -930,7 +930,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
@@ -940,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
@@ -950,47 +950,47 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
@@ -998,7 +998,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
@@ -1012,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
@@ -1022,7 +1022,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
@@ -1032,7 +1032,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
@@ -1042,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
@@ -1052,7 +1052,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
@@ -1062,43 +1062,43 @@
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
@@ -1106,7 +1106,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
@@ -1130,47 +1130,47 @@
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
@@ -1178,7 +1178,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
@@ -1192,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
@@ -1202,47 +1202,47 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
@@ -1250,7 +1250,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
@@ -1264,47 +1264,47 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
@@ -1312,7 +1312,7 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
@@ -1326,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
@@ -1336,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
@@ -1346,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
@@ -1356,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
@@ -1366,47 +1366,47 @@
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
@@ -1414,7 +1414,7 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
@@ -1428,47 +1428,47 @@
         <v>4</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
@@ -1476,7 +1476,7 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
@@ -1484,58 +1484,58 @@
         <v>38</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="C64" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="3:4" ht="15" customHeight="1">
       <c r="C65" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="3:4" ht="15" customHeight="1">
       <c r="C66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="3:4" ht="15" customHeight="1">
       <c r="C67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="3:4" ht="15" customHeight="1">
       <c r="C68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="3:4" ht="15" customHeight="1">
       <c r="D69" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1548,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D305"/>
   <sheetViews>
-    <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection sqref="A1:D305"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1572,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
@@ -1580,7 +1580,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
@@ -1588,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
@@ -1596,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
@@ -1604,68 +1604,68 @@
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
@@ -1679,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
@@ -1687,7 +1687,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
@@ -1695,7 +1695,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="15" customHeight="1">
@@ -1703,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="15" customHeight="1">
@@ -1711,7 +1711,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="15" customHeight="1">
@@ -1719,23 +1719,23 @@
         <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="15" customHeight="1">
       <c r="C20" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15" customHeight="1">
       <c r="C21" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="15" customHeight="1">
@@ -1743,7 +1743,7 @@
         <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15" customHeight="1">
@@ -1751,7 +1751,7 @@
         <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="15" customHeight="1">
@@ -1759,7 +1759,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15" customHeight="1">
@@ -1767,7 +1767,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="15" customHeight="1">
@@ -1775,7 +1775,7 @@
         <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="15" customHeight="1">
@@ -1783,7 +1783,7 @@
         <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="15" customHeight="1">
@@ -1791,7 +1791,7 @@
         <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="15" customHeight="1">
@@ -1799,7 +1799,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="15" customHeight="1">
@@ -1807,68 +1807,68 @@
         <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="15" customHeight="1">
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="C34" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
       <c r="C35" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="C36" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="C37" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="D38" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
@@ -1882,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
@@ -1890,68 +1890,68 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
       <c r="C43" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
       <c r="C44" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
       <c r="C45" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
       <c r="C46" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="C47" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
       <c r="D48" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
@@ -1965,7 +1965,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
@@ -1973,15 +1973,15 @@
         <v>41</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="C51" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>42</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
@@ -1997,7 +1997,7 @@
         <v>43</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
@@ -2005,7 +2005,7 @@
         <v>44</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
@@ -2013,7 +2013,7 @@
         <v>45</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
@@ -2021,68 +2021,68 @@
         <v>46</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="C57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="C58" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
       <c r="C59" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
       <c r="C60" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="C61" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
       <c r="C62" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="C63" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="D64" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
@@ -2096,7 +2096,7 @@
         <v>15</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
@@ -2104,68 +2104,68 @@
         <v>48</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="C67" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="C68" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
       <c r="C69" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="C70" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="C71" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="C72" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="C73" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
       <c r="D74" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
@@ -2179,7 +2179,7 @@
         <v>29</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
@@ -2187,68 +2187,68 @@
         <v>50</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
       <c r="C77" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="C78" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="C79" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
       <c r="C80" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="C81" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1">
       <c r="C82" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1">
       <c r="C83" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="D84" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1">
@@ -2262,7 +2262,7 @@
         <v>14</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1">
@@ -2270,7 +2270,7 @@
         <v>52</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
@@ -2278,68 +2278,68 @@
         <v>53</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1">
       <c r="C88" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1">
       <c r="C89" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
       <c r="C90" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="C91" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1">
       <c r="C92" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1">
       <c r="C93" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1">
       <c r="C94" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1">
       <c r="D95" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1">
@@ -2353,7 +2353,7 @@
         <v>54</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1">
@@ -2361,68 +2361,68 @@
         <v>55</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1">
       <c r="C98" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1">
       <c r="C99" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1">
       <c r="C100" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1">
       <c r="C101" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1">
       <c r="C102" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1">
       <c r="C103" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1">
       <c r="C104" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1">
       <c r="D105" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1">
@@ -2436,7 +2436,7 @@
         <v>54</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1">
@@ -2444,68 +2444,68 @@
         <v>55</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1">
       <c r="C108" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1">
       <c r="C109" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1">
       <c r="C110" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1">
       <c r="C111" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1">
       <c r="C112" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1">
       <c r="C113" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
       <c r="C114" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
       <c r="D115" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1">
@@ -2519,7 +2519,7 @@
         <v>33</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
@@ -2527,68 +2527,68 @@
         <v>63</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
       <c r="C118" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="C119" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
       <c r="C120" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
       <c r="C121" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
       <c r="C122" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
       <c r="C123" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="C124" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1">
       <c r="D125" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
@@ -2602,7 +2602,7 @@
         <v>34</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
@@ -2610,7 +2610,7 @@
         <v>60</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
@@ -2618,68 +2618,68 @@
         <v>61</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
       <c r="C129" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
       <c r="C130" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1">
       <c r="C131" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="C132" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="C133" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="C134" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="C135" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="D136" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
@@ -2693,7 +2693,7 @@
         <v>13</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
@@ -2701,68 +2701,68 @@
         <v>66</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1">
       <c r="C139" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="C140" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
       <c r="C141" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1">
       <c r="C142" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1">
       <c r="C143" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
       <c r="C144" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
       <c r="C145" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1">
       <c r="D146" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
@@ -2776,7 +2776,7 @@
         <v>30</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
@@ -2784,68 +2784,68 @@
         <v>65</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
       <c r="C149" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
       <c r="C150" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
       <c r="C151" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
       <c r="C152" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
       <c r="C153" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1">
       <c r="C154" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
       <c r="C155" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
       <c r="D156" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
@@ -2853,79 +2853,79 @@
         <v>25</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="C158" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1">
       <c r="C159" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1">
       <c r="C160" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1">
       <c r="C161" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1">
       <c r="C162" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1">
       <c r="C163" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1">
       <c r="C164" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1">
       <c r="D165" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>20</v>
@@ -2934,7 +2934,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
@@ -2942,7 +2942,7 @@
         <v>26</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1">
@@ -2950,41 +2950,41 @@
         <v>27</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1">
       <c r="C169" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1">
       <c r="C170" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1">
       <c r="C171" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1">
       <c r="D172" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>21</v>
@@ -2993,7 +2993,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1">
@@ -3001,7 +3001,7 @@
         <v>12</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1">
@@ -3009,7 +3009,7 @@
         <v>14</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1">
@@ -3017,7 +3017,7 @@
         <v>15</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177" spans="3:4" ht="15" customHeight="1">
@@ -3025,7 +3025,7 @@
         <v>48</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="178" spans="3:4" ht="15" customHeight="1">
@@ -3033,7 +3033,7 @@
         <v>13</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179" spans="3:4" ht="15" customHeight="1">
@@ -3041,7 +3041,7 @@
         <v>66</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="180" spans="3:4" ht="15" customHeight="1">
@@ -3049,7 +3049,7 @@
         <v>16</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="181" spans="3:4" ht="15" customHeight="1">
@@ -3057,31 +3057,31 @@
         <v>28</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="182" spans="3:4" ht="15" customHeight="1">
       <c r="C182" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="183" spans="3:4" ht="15" customHeight="1">
       <c r="C183" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="184" spans="3:4" ht="15" customHeight="1">
       <c r="C184" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="185" spans="3:4" ht="15" customHeight="1">
@@ -3089,7 +3089,7 @@
         <v>52</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="186" spans="3:4" ht="15" customHeight="1">
@@ -3097,7 +3097,7 @@
         <v>53</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187" spans="3:4" ht="15" customHeight="1">
@@ -3105,7 +3105,7 @@
         <v>29</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="188" spans="3:4" ht="15" customHeight="1">
@@ -3113,7 +3113,7 @@
         <v>50</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="189" spans="3:4" ht="15" customHeight="1">
@@ -3121,7 +3121,7 @@
         <v>30</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="190" spans="3:4" ht="15" customHeight="1">
@@ -3129,7 +3129,7 @@
         <v>65</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191" spans="3:4" ht="15" customHeight="1">
@@ -3137,7 +3137,7 @@
         <v>31</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="192" spans="3:4" ht="15" customHeight="1">
@@ -3145,7 +3145,7 @@
         <v>32</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1">
@@ -3153,7 +3153,7 @@
         <v>33</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1">
@@ -3161,7 +3161,7 @@
         <v>63</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1">
@@ -3169,7 +3169,7 @@
         <v>34</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1">
@@ -3177,7 +3177,7 @@
         <v>60</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1">
@@ -3185,7 +3185,7 @@
         <v>61</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1">
@@ -3193,15 +3193,15 @@
         <v>35</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1">
       <c r="C199" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1">
@@ -3209,41 +3209,41 @@
         <v>36</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1">
       <c r="C201" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1">
       <c r="C202" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1">
       <c r="C203" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1">
       <c r="D204" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>18</v>
@@ -3252,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1">
@@ -3260,58 +3260,58 @@
         <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1">
       <c r="C207" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1">
       <c r="C208" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1">
       <c r="C209" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1">
       <c r="C210" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1">
       <c r="D211" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1">
       <c r="A212" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1">
@@ -3319,15 +3319,15 @@
         <v>41</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1">
       <c r="C214" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1">
@@ -3335,7 +3335,7 @@
         <v>42</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1">
@@ -3343,7 +3343,7 @@
         <v>43</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1">
@@ -3351,7 +3351,7 @@
         <v>44</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1">
@@ -3359,7 +3359,7 @@
         <v>45</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1">
@@ -3367,50 +3367,50 @@
         <v>46</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1">
       <c r="C220" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1">
       <c r="C221" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1">
       <c r="C222" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1">
       <c r="D223" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1">
@@ -3418,50 +3418,50 @@
         <v>48</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1">
       <c r="C226" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1">
       <c r="C227" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1">
       <c r="C228" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1">
       <c r="D229" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1">
@@ -3469,50 +3469,50 @@
         <v>50</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1">
       <c r="C232" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1">
       <c r="C233" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1">
       <c r="C234" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1">
       <c r="D235" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1">
@@ -3520,7 +3520,7 @@
         <v>54</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1">
@@ -3528,7 +3528,7 @@
         <v>55</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1">
@@ -3536,7 +3536,7 @@
         <v>57</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1">
@@ -3544,7 +3544,7 @@
         <v>52</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1">
@@ -3552,50 +3552,50 @@
         <v>53</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1">
       <c r="C242" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1">
       <c r="C243" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1">
       <c r="C244" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1">
       <c r="D245" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1">
@@ -3603,50 +3603,50 @@
         <v>54</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1">
       <c r="C248" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1">
       <c r="C249" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1">
       <c r="C250" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1">
       <c r="D251" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1">
@@ -3654,50 +3654,50 @@
         <v>63</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1">
       <c r="C254" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1">
       <c r="C255" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1">
       <c r="C256" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1">
       <c r="D257" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1">
@@ -3705,7 +3705,7 @@
         <v>60</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1">
@@ -3713,58 +3713,58 @@
         <v>61</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1">
       <c r="C261" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1">
       <c r="C262" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1">
       <c r="C263" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1">
       <c r="C264" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1">
       <c r="D265" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1">
@@ -3772,50 +3772,50 @@
         <v>66</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1">
       <c r="C268" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1">
       <c r="C269" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1">
       <c r="C270" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1">
       <c r="D271" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1">
@@ -3823,50 +3823,50 @@
         <v>65</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1">
       <c r="C274" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1">
       <c r="C275" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1">
       <c r="C276" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1">
       <c r="D277" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1">
@@ -3874,7 +3874,7 @@
         <v>54</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1">
@@ -3882,58 +3882,58 @@
         <v>55</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1">
       <c r="C281" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1">
       <c r="C282" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1">
       <c r="C283" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1">
       <c r="D284" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1">
       <c r="A285" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1">
       <c r="C286" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1">
@@ -3941,41 +3941,41 @@
         <v>19</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1">
       <c r="C288" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1">
       <c r="C289" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1">
       <c r="C290" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1">
       <c r="D291" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1">
       <c r="A292" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>17</v>
@@ -3984,7 +3984,7 @@
         <v>6</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15" customHeight="1">
@@ -3992,103 +3992,103 @@
         <v>12</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1">
       <c r="C294" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1">
       <c r="C295" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1">
       <c r="C296" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15" customHeight="1">
       <c r="D297" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1">
       <c r="A298" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1">
       <c r="C299" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1">
       <c r="C300" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1">
       <c r="C301" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1">
       <c r="C302" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="15" customHeight="1">
       <c r="C303" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1">
       <c r="C304" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="305" spans="4:4" ht="15" customHeight="1">
       <c r="D305" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4101,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D103" sqref="A1:D103"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -4119,13 +4119,13 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
@@ -4133,7 +4133,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
@@ -4141,60 +4141,60 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="D10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
@@ -4202,13 +4202,13 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
@@ -4216,7 +4216,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
@@ -4224,7 +4224,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
@@ -4232,7 +4232,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
@@ -4240,7 +4240,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
@@ -4248,60 +4248,60 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="C19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="D23" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
@@ -4309,21 +4309,21 @@
         <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
@@ -4331,60 +4331,60 @@
         <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="C28" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="C32" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="D33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
@@ -4392,13 +4392,13 @@
         <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
@@ -4406,60 +4406,60 @@
         <v>66</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="C37" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="C38" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="C39" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
       <c r="D42" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
@@ -4467,13 +4467,13 @@
         <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
@@ -4481,60 +4481,60 @@
         <v>48</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
       <c r="C45" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
       <c r="C46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="C47" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
       <c r="C48" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
       <c r="C49" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
       <c r="C50" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="D51" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
@@ -4542,13 +4542,13 @@
         <v>37</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
@@ -4556,7 +4556,7 @@
         <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
@@ -4564,7 +4564,7 @@
         <v>40</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
@@ -4572,7 +4572,7 @@
         <v>41</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
@@ -4580,7 +4580,7 @@
         <v>42</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
@@ -4588,7 +4588,7 @@
         <v>43</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
@@ -4596,7 +4596,7 @@
         <v>44</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
@@ -4604,7 +4604,7 @@
         <v>45</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
@@ -4612,60 +4612,60 @@
         <v>46</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="C61" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
       <c r="C62" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="C63" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="C64" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
       <c r="C65" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
       <c r="C66" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="D67" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
@@ -4673,13 +4673,13 @@
         <v>37</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
@@ -4687,116 +4687,116 @@
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="C70" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="C71" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="C72" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="C73" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
       <c r="C74" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
       <c r="C75" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
       <c r="D76" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="C78" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="C79" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
       <c r="C80" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="C81" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1">
       <c r="D82" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>9</v>
@@ -4805,26 +4805,26 @@
         <v>4</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="D84" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1">
@@ -4832,7 +4832,7 @@
         <v>15</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
@@ -4840,26 +4840,26 @@
         <v>48</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1">
       <c r="D88" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
@@ -4867,15 +4867,15 @@
         <v>41</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="C91" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1">
@@ -4883,7 +4883,7 @@
         <v>42</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1">
@@ -4891,7 +4891,7 @@
         <v>43</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1">
@@ -4899,7 +4899,7 @@
         <v>44</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1">
@@ -4907,7 +4907,7 @@
         <v>45</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1">
@@ -4915,66 +4915,66 @@
         <v>46</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="C97" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1">
       <c r="C98" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1">
       <c r="D99" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1">
       <c r="D101" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1">
       <c r="D103" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1">
@@ -5007,7 +5007,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
@@ -5016,7 +5016,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -5024,7 +5024,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
@@ -5032,57 +5032,57 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="C8" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
@@ -5091,7 +5091,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
@@ -5099,7 +5099,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
@@ -5107,7 +5107,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
@@ -5115,7 +5115,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
@@ -5123,7 +5123,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -5132,7 +5132,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
@@ -5140,66 +5140,66 @@
         <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="C18" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="C19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="C20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="C21" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="D22" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
@@ -5207,7 +5207,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
@@ -5215,93 +5215,93 @@
         <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="C27" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="D31" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="D34" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
@@ -5309,7 +5309,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
@@ -5317,7 +5317,7 @@
         <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
@@ -5325,26 +5325,26 @@
         <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="D39" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
@@ -5352,7 +5352,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
@@ -5360,7 +5360,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
@@ -5368,7 +5368,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
@@ -5376,7 +5376,7 @@
         <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
@@ -5384,7 +5384,7 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
@@ -5392,7 +5392,7 @@
         <v>42</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
@@ -5400,7 +5400,7 @@
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
@@ -5408,7 +5408,7 @@
         <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
@@ -5416,7 +5416,7 @@
         <v>45</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
@@ -5424,27 +5424,27 @@
         <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="C51" s="3"/>
       <c r="D51" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
@@ -5452,7 +5452,7 @@
         <v>63</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
@@ -5460,7 +5460,7 @@
         <v>34</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
@@ -5468,7 +5468,7 @@
         <v>60</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
@@ -5476,27 +5476,27 @@
         <v>61</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="C57" s="3"/>
       <c r="D57" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
@@ -5504,26 +5504,26 @@
         <v>66</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
       <c r="D60" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
@@ -5531,26 +5531,26 @@
         <v>65</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="D63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
@@ -5558,7 +5558,7 @@
         <v>54</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
@@ -5566,7 +5566,7 @@
         <v>55</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
@@ -5574,7 +5574,7 @@
         <v>57</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
@@ -5582,7 +5582,7 @@
         <v>15</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
@@ -5590,7 +5590,7 @@
         <v>48</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
@@ -5598,7 +5598,7 @@
         <v>52</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
@@ -5606,26 +5606,26 @@
         <v>53</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="D72" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
@@ -5633,7 +5633,7 @@
         <v>55</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
@@ -5641,7 +5641,7 @@
         <v>29</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
@@ -5649,26 +5649,26 @@
         <v>50</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
       <c r="D77" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
@@ -5676,26 +5676,26 @@
         <v>66</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
       <c r="D80" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1">
@@ -5703,34 +5703,34 @@
         <v>65</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1">
       <c r="D83" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1">
       <c r="C85" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1">
@@ -5738,34 +5738,34 @@
         <v>19</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="D87" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1">
       <c r="C89" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
@@ -5773,7 +5773,7 @@
         <v>19</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1">
@@ -5781,7 +5781,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1">
@@ -5789,7 +5789,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1">
@@ -5797,7 +5797,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1">
@@ -5805,7 +5805,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1">
@@ -5813,7 +5813,7 @@
         <v>7</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1">
@@ -5821,7 +5821,7 @@
         <v>12</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="3:4" ht="15" customHeight="1">
@@ -5829,7 +5829,7 @@
         <v>40</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="3:4" ht="15" customHeight="1">
@@ -5837,7 +5837,7 @@
         <v>41</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="15" customHeight="1">
@@ -5845,7 +5845,7 @@
         <v>42</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="3:4" ht="15" customHeight="1">
@@ -5853,7 +5853,7 @@
         <v>43</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="3:4" ht="15" customHeight="1">
@@ -5861,7 +5861,7 @@
         <v>44</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="15" customHeight="1">
@@ -5869,7 +5869,7 @@
         <v>45</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="3:4" ht="15" customHeight="1">
@@ -5877,7 +5877,7 @@
         <v>46</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="3:4" ht="15" customHeight="1">
@@ -5885,7 +5885,7 @@
         <v>14</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="3:4" ht="15" customHeight="1">
@@ -5893,7 +5893,7 @@
         <v>54</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="3:4" ht="15" customHeight="1">
@@ -5901,7 +5901,7 @@
         <v>55</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="3:4" ht="15" customHeight="1">
@@ -5909,7 +5909,7 @@
         <v>57</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="3:4" ht="15" customHeight="1">
@@ -5917,7 +5917,7 @@
         <v>15</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="3:4" ht="15" customHeight="1">
@@ -5925,7 +5925,7 @@
         <v>48</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="15" customHeight="1">
@@ -5933,7 +5933,7 @@
         <v>13</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="3:4" ht="15" customHeight="1">
@@ -5941,7 +5941,7 @@
         <v>66</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="3:4" ht="15" customHeight="1">
@@ -5949,7 +5949,7 @@
         <v>26</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1">
@@ -5957,7 +5957,7 @@
         <v>52</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
@@ -5965,7 +5965,7 @@
         <v>53</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
@@ -5973,7 +5973,7 @@
         <v>29</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1">
@@ -5981,7 +5981,7 @@
         <v>50</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
@@ -5989,7 +5989,7 @@
         <v>30</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
@@ -5997,7 +5997,7 @@
         <v>65</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
@@ -6005,7 +6005,7 @@
         <v>27</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
@@ -6013,7 +6013,7 @@
         <v>33</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
@@ -6021,7 +6021,7 @@
         <v>63</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
@@ -6029,7 +6029,7 @@
         <v>34</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
@@ -6037,7 +6037,7 @@
         <v>60</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
@@ -6045,112 +6045,112 @@
         <v>61</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1">
       <c r="D125" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
       <c r="C127" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
       <c r="C128" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
       <c r="C129" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
       <c r="D130" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="C132" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="C133" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="C134" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="D135" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
@@ -6158,7 +6158,7 @@
         <v>26</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
@@ -6166,42 +6166,42 @@
         <v>27</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1">
       <c r="D139" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
       <c r="C141" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1">
       <c r="C142" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1">
@@ -6209,7 +6209,7 @@
         <v>15</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
@@ -6217,7 +6217,7 @@
         <v>48</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
@@ -6225,7 +6225,7 @@
         <v>66</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1">
@@ -6233,7 +6233,7 @@
         <v>52</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
@@ -6241,7 +6241,7 @@
         <v>53</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
@@ -6249,7 +6249,7 @@
         <v>29</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
@@ -6257,26 +6257,26 @@
         <v>50</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
       <c r="D150" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
@@ -6284,7 +6284,7 @@
         <v>41</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
@@ -6292,7 +6292,7 @@
         <v>42</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1">
@@ -6300,7 +6300,7 @@
         <v>43</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
@@ -6308,7 +6308,7 @@
         <v>44</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
@@ -6316,7 +6316,7 @@
         <v>45</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
@@ -6324,15 +6324,15 @@
         <v>46</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="C158" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1">
@@ -6340,7 +6340,7 @@
         <v>63</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1">
@@ -6348,7 +6348,7 @@
         <v>60</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1">
@@ -6356,27 +6356,27 @@
         <v>61</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1">
       <c r="C162" s="3"/>
       <c r="D162" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1">
@@ -6384,26 +6384,26 @@
         <v>65</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1">
       <c r="D165" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
@@ -6411,95 +6411,95 @@
         <v>65</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1">
       <c r="D168" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1">
       <c r="C170" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1">
       <c r="C171" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1">
       <c r="C172" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1">
       <c r="C173" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1">
       <c r="D174" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1">
       <c r="C176" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1">
       <c r="D177" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>9</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1">
@@ -6516,7 +6516,7 @@
         <v>26</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1">
@@ -6524,34 +6524,34 @@
         <v>27</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1">
       <c r="D181" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1">
       <c r="C183" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1">
@@ -6559,43 +6559,43 @@
         <v>19</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1">
       <c r="C185" s="3"/>
       <c r="D185" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1">
       <c r="C187" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1">
       <c r="C188" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1">
@@ -6603,7 +6603,7 @@
         <v>15</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1">
@@ -6611,7 +6611,7 @@
         <v>48</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1">
@@ -6619,7 +6619,7 @@
         <v>66</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1">
@@ -6627,7 +6627,7 @@
         <v>52</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1">
@@ -6635,7 +6635,7 @@
         <v>53</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1">
@@ -6643,7 +6643,7 @@
         <v>29</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1">
@@ -6651,26 +6651,26 @@
         <v>50</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1">
       <c r="D196" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1">
@@ -6678,7 +6678,7 @@
         <v>41</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1">
@@ -6686,7 +6686,7 @@
         <v>42</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1">
@@ -6694,7 +6694,7 @@
         <v>43</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1">
@@ -6702,7 +6702,7 @@
         <v>44</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1">
@@ -6710,7 +6710,7 @@
         <v>45</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1">
@@ -6718,15 +6718,15 @@
         <v>46</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1">
       <c r="C204" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1">
@@ -6734,7 +6734,7 @@
         <v>63</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1">
@@ -6742,7 +6742,7 @@
         <v>60</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1">
@@ -6750,27 +6750,27 @@
         <v>61</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1">
       <c r="C208" s="3"/>
       <c r="D208" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1">
@@ -6778,26 +6778,26 @@
         <v>65</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1">
       <c r="D211" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1">
@@ -6805,7 +6805,7 @@
         <v>65</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1">
@@ -6813,20 +6813,20 @@
         <v>35</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1">
       <c r="C215" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1">
       <c r="D216" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
